--- a/src/test/resources/adsledstyle.xlsx
+++ b/src/test/resources/adsledstyle.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naveen\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LedStyle" sheetId="1" r:id="rId1"/>
@@ -418,18 +418,18 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="29.36328125" customWidth="1"/>
+    <col min="6" max="6" width="16.90625" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -485,21 +485,21 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G5" sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
